--- a/results/region_genre_04_jp_genre.xlsx
+++ b/results/region_genre_04_jp_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>163702.0438</v>
+        <v>17867.9243</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.0407</v>
       </c>
       <c r="F2" t="n">
-        <v>151366.291</v>
+        <v>441.871</v>
       </c>
       <c r="G2" t="n">
-        <v>176037.7967</v>
+        <v>35293.9776</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -506,28 +506,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-25564.6393</v>
+        <v>11762.6804</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0.4538</v>
       </c>
       <c r="F3" t="n">
-        <v>-37900.3921</v>
+        <v>-6645.1782</v>
       </c>
       <c r="G3" t="n">
-        <v>-13228.8864</v>
+        <v>30170.539</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,25 +536,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>rpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64421.571</v>
+        <v>157878.1729</v>
       </c>
       <c r="E4" t="n">
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>52085.8182</v>
+        <v>136141.5533</v>
       </c>
       <c r="G4" t="n">
-        <v>76757.3239</v>
+        <v>179614.7926</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -566,28 +566,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>simul</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-189266.6831</v>
+        <v>10225.5345</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.7012</v>
       </c>
       <c r="F5" t="n">
-        <v>-201602.4359</v>
+        <v>-10612.2034</v>
       </c>
       <c r="G5" t="n">
-        <v>-176930.9302</v>
+        <v>31063.2723</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-99280.4728</v>
+        <v>3160.9144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-111616.2256</v>
+        <v>-13528.8541</v>
       </c>
       <c r="G6" t="n">
-        <v>-86944.7199</v>
+        <v>19850.6829</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,28 +626,298 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89986.21030000001</v>
+        <v>-6105.2439</v>
       </c>
       <c r="E7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-26201.4915</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13991.0037</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>140010.2487</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" t="n">
-        <v>77650.4574</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102321.9632</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="F8" t="n">
+        <v>116826.4064</v>
+      </c>
+      <c r="G8" t="n">
+        <v>163194.091</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-7642.3898</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-29985.649</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14700.8693</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-14707.0099</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2101</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-33242.3351</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3828.3154</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>146115.4925</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>122184.9166</v>
+      </c>
+      <c r="G11" t="n">
+        <v>170046.0685</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-1537.1459</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-24654.3074</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21580.0155</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-8601.766</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-28063.0148</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10859.4828</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-147652.6385</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-173499.0024</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-121806.2745</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-154717.2585</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-177352.8849</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-132081.6321</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-7064.6201</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-28838.5096</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14709.2695</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/region_genre_04_jp_genre.xlsx
+++ b/results/region_genre_04_jp_genre.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17867.9243</v>
+        <v>19276.01</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0407</v>
+        <v>0.7887999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>441.871</v>
+        <v>-24788.9832</v>
       </c>
       <c r="G2" t="n">
-        <v>35293.9776</v>
+        <v>63341.0032</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11762.6804</v>
+        <v>59284.4173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4538</v>
+        <v>0.0135</v>
       </c>
       <c r="F3" t="n">
-        <v>-6645.1782</v>
+        <v>7719.2106</v>
       </c>
       <c r="G3" t="n">
-        <v>30170.539</v>
+        <v>110849.624</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>157878.1729</v>
+        <v>177275.5149</v>
       </c>
       <c r="E4" t="n">
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>136141.5533</v>
+        <v>130334.7949</v>
       </c>
       <c r="G4" t="n">
-        <v>179614.7926</v>
+        <v>224216.2348</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10225.5345</v>
+        <v>54939.3048</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7012</v>
+        <v>0.0828</v>
       </c>
       <c r="F5" t="n">
-        <v>-10612.2034</v>
+        <v>-3830.8126</v>
       </c>
       <c r="G5" t="n">
-        <v>31063.2723</v>
+        <v>113709.4223</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3160.9144</v>
+        <v>93282.2414</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="n">
-        <v>-13528.8541</v>
+        <v>41754.8119</v>
       </c>
       <c r="G6" t="n">
-        <v>19850.6829</v>
+        <v>144809.6709</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-6105.2439</v>
+        <v>40008.4073</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.2783</v>
       </c>
       <c r="F7" t="n">
-        <v>-26201.4915</v>
+        <v>-13850.5454</v>
       </c>
       <c r="G7" t="n">
-        <v>13991.0037</v>
+        <v>93867.36010000001</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>140010.2487</v>
+        <v>157999.5049</v>
       </c>
       <c r="E8" t="n">
         <v>0.001</v>
       </c>
       <c r="F8" t="n">
-        <v>116826.4064</v>
+        <v>108550.0616</v>
       </c>
       <c r="G8" t="n">
-        <v>163194.091</v>
+        <v>207448.9481</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-7642.3898</v>
+        <v>35663.2948</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9</v>
+        <v>0.5432</v>
       </c>
       <c r="F9" t="n">
-        <v>-29985.649</v>
+        <v>-25129.3277</v>
       </c>
       <c r="G9" t="n">
-        <v>14700.8693</v>
+        <v>96455.91740000001</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-14707.0099</v>
+        <v>74006.2314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2101</v>
+        <v>0.0013</v>
       </c>
       <c r="F10" t="n">
-        <v>-33242.3351</v>
+        <v>20183.4458</v>
       </c>
       <c r="G10" t="n">
-        <v>3828.3154</v>
+        <v>127829.017</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>146115.4925</v>
+        <v>117991.0976</v>
       </c>
       <c r="E11" t="n">
         <v>0.001</v>
       </c>
       <c r="F11" t="n">
-        <v>122184.9166</v>
+        <v>61755.0383</v>
       </c>
       <c r="G11" t="n">
-        <v>170046.0685</v>
+        <v>174227.1568</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-1537.1459</v>
+        <v>-4345.1125</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
       </c>
       <c r="F12" t="n">
-        <v>-24654.3074</v>
+        <v>-70775.451</v>
       </c>
       <c r="G12" t="n">
-        <v>21580.0155</v>
+        <v>62085.226</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-8601.766</v>
+        <v>33997.8241</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7814</v>
+        <v>0.578</v>
       </c>
       <c r="F13" t="n">
-        <v>-28063.0148</v>
+        <v>-26119.8868</v>
       </c>
       <c r="G13" t="n">
-        <v>10859.4828</v>
+        <v>94115.535</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-147652.6385</v>
+        <v>-122336.21</v>
       </c>
       <c r="E14" t="n">
         <v>0.001</v>
       </c>
       <c r="F14" t="n">
-        <v>-173499.0024</v>
+        <v>-185244.4807</v>
       </c>
       <c r="G14" t="n">
-        <v>-121806.2745</v>
+        <v>-59427.9393</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-154717.2585</v>
+        <v>-83993.2735</v>
       </c>
       <c r="E15" t="n">
         <v>0.001</v>
       </c>
       <c r="F15" t="n">
-        <v>-177352.8849</v>
+        <v>-140194.6952</v>
       </c>
       <c r="G15" t="n">
-        <v>-132081.6321</v>
+        <v>-27791.8517</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-7064.6201</v>
+        <v>38342.9366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.5584</v>
       </c>
       <c r="F16" t="n">
-        <v>-28838.5096</v>
+        <v>-28058.0825</v>
       </c>
       <c r="G16" t="n">
-        <v>14709.2695</v>
+        <v>104743.9556</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
